--- a/input/INVENTAIRE062023.xlsx
+++ b/input/INVENTAIRE062023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Desktop\donnesavrilmaijuinjuillet\Données\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LP\Desktop\dashbord\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC14166-3F74-4122-8BB4-A1007F51C512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTAIRE062023" sheetId="1" r:id="rId1"/>
@@ -261,9 +262,6 @@
     <t>825 000 CFA</t>
   </si>
   <si>
-    <t>MOET CHANDOM</t>
-  </si>
-  <si>
     <t>1 050 000 CFA</t>
   </si>
   <si>
@@ -273,9 +271,6 @@
     <t>920 000 CFA</t>
   </si>
   <si>
-    <t>MOET CHANDOM NECTAR</t>
-  </si>
-  <si>
     <t>320 000 CFA</t>
   </si>
   <si>
@@ -1264,12 +1259,18 @@
   </si>
   <si>
     <t>Juin</t>
+  </si>
+  <si>
+    <t>MOET CHANDON</t>
+  </si>
+  <si>
+    <t>MOET CHANDON NECTAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1751,48 +1752,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2069,14 +2070,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L473"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="K475" sqref="K475"/>
+      <selection activeCell="A460" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2110,10 +2111,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2121,7 +2122,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L3">
         <v>2023</v>
@@ -2129,7 +2130,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L4">
         <v>2023</v>
@@ -2164,7 +2165,7 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L5">
         <v>2023</v>
@@ -2172,7 +2173,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L6">
         <v>2023</v>
@@ -2207,7 +2208,7 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L7">
         <v>2023</v>
@@ -2215,7 +2216,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L8">
         <v>2023</v>
@@ -2250,7 +2251,7 @@
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L9">
         <v>2023</v>
@@ -2258,7 +2259,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L10">
         <v>2023</v>
@@ -2293,7 +2294,7 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L11">
         <v>2023</v>
@@ -2301,7 +2302,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L12">
         <v>2023</v>
@@ -2336,7 +2337,7 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L13">
         <v>2023</v>
@@ -2344,7 +2345,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L14">
         <v>2023</v>
@@ -2352,7 +2353,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L15">
         <v>2023</v>
@@ -2360,7 +2361,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L16">
         <v>2023</v>
@@ -2371,7 +2372,7 @@
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L17">
         <v>2023</v>
@@ -2379,7 +2380,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L18">
         <v>2023</v>
@@ -2417,7 +2418,7 @@
         <v>201000</v>
       </c>
       <c r="K19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L19">
         <v>2023</v>
@@ -2425,7 +2426,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L20">
         <v>2023</v>
@@ -2463,7 +2464,7 @@
         <v>201000</v>
       </c>
       <c r="K21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L21">
         <v>2023</v>
@@ -2471,7 +2472,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L22">
         <v>2023</v>
@@ -2479,7 +2480,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L23">
         <v>2023</v>
@@ -2487,7 +2488,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L24">
         <v>2023</v>
@@ -2498,7 +2499,7 @@
         <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L25">
         <v>2023</v>
@@ -2506,7 +2507,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L26">
         <v>2023</v>
@@ -2544,7 +2545,7 @@
         <v>144000</v>
       </c>
       <c r="K27" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L27">
         <v>2023</v>
@@ -2552,7 +2553,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L28">
         <v>2023</v>
@@ -2590,7 +2591,7 @@
         <v>10500</v>
       </c>
       <c r="K29" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L29">
         <v>2023</v>
@@ -2598,7 +2599,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L30">
         <v>2023</v>
@@ -2636,7 +2637,7 @@
         <v>432000</v>
       </c>
       <c r="K31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L31">
         <v>2023</v>
@@ -2644,7 +2645,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L32">
         <v>2023</v>
@@ -2682,7 +2683,7 @@
         <v>15000</v>
       </c>
       <c r="K33" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L33">
         <v>2023</v>
@@ -2690,7 +2691,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L34">
         <v>2023</v>
@@ -2728,7 +2729,7 @@
         <v>162000</v>
       </c>
       <c r="K35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L35">
         <v>2023</v>
@@ -2736,7 +2737,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L36">
         <v>2023</v>
@@ -2774,7 +2775,7 @@
         <v>248000</v>
       </c>
       <c r="K37" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L37">
         <v>2023</v>
@@ -2782,7 +2783,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K38" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L38">
         <v>2023</v>
@@ -2820,7 +2821,7 @@
         <v>39000</v>
       </c>
       <c r="K39" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L39">
         <v>2023</v>
@@ -2828,7 +2829,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L40">
         <v>2023</v>
@@ -2866,7 +2867,7 @@
         <v>158000</v>
       </c>
       <c r="K41" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L41">
         <v>2023</v>
@@ -2874,7 +2875,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L42">
         <v>2023</v>
@@ -2912,7 +2913,7 @@
         <v>10500</v>
       </c>
       <c r="K43" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L43">
         <v>2023</v>
@@ -2920,7 +2921,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L44">
         <v>2023</v>
@@ -2958,7 +2959,7 @@
         <v>194000</v>
       </c>
       <c r="K45" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L45">
         <v>2023</v>
@@ -2966,7 +2967,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K46" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L46">
         <v>2023</v>
@@ -3004,7 +3005,7 @@
         <v>1413000</v>
       </c>
       <c r="K47" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L47">
         <v>2023</v>
@@ -3012,7 +3013,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K48" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L48">
         <v>2023</v>
@@ -3020,7 +3021,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K49" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L49">
         <v>2023</v>
@@ -3028,7 +3029,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K50" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L50">
         <v>2023</v>
@@ -3039,7 +3040,7 @@
         <v>46</v>
       </c>
       <c r="K51" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L51">
         <v>2023</v>
@@ -3047,7 +3048,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K52" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L52">
         <v>2023</v>
@@ -3085,7 +3086,7 @@
         <v>65000</v>
       </c>
       <c r="K53" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L53">
         <v>2023</v>
@@ -3093,7 +3094,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K54" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L54">
         <v>2023</v>
@@ -3131,7 +3132,7 @@
         <v>51000</v>
       </c>
       <c r="K55" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L55">
         <v>2023</v>
@@ -3139,7 +3140,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K56" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L56">
         <v>2023</v>
@@ -3177,7 +3178,7 @@
         <v>24000</v>
       </c>
       <c r="K57" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L57">
         <v>2023</v>
@@ -3185,7 +3186,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K58" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L58">
         <v>2023</v>
@@ -3223,7 +3224,7 @@
         <v>30000</v>
       </c>
       <c r="K59" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L59">
         <v>2023</v>
@@ -3231,7 +3232,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K60" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L60">
         <v>2023</v>
@@ -3269,7 +3270,7 @@
         <v>102000</v>
       </c>
       <c r="K61" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L61">
         <v>2023</v>
@@ -3277,7 +3278,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K62" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L62">
         <v>2023</v>
@@ -3315,7 +3316,7 @@
         <v>195000</v>
       </c>
       <c r="K63" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L63">
         <v>2023</v>
@@ -3323,7 +3324,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K64" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L64">
         <v>2023</v>
@@ -3361,7 +3362,7 @@
         <v>223750</v>
       </c>
       <c r="K65" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L65">
         <v>2023</v>
@@ -3369,7 +3370,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K66" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L66">
         <v>2023</v>
@@ -3407,7 +3408,7 @@
         <v>126000</v>
       </c>
       <c r="K67" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L67">
         <v>2023</v>
@@ -3415,7 +3416,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K68" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L68">
         <v>2023</v>
@@ -3453,7 +3454,7 @@
         <v>36000</v>
       </c>
       <c r="K69" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L69">
         <v>2023</v>
@@ -3461,7 +3462,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K70" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L70">
         <v>2023</v>
@@ -3499,7 +3500,7 @@
         <v>36000</v>
       </c>
       <c r="K71" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L71">
         <v>2023</v>
@@ -3507,7 +3508,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K72" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L72">
         <v>2023</v>
@@ -3545,7 +3546,7 @@
         <v>42000</v>
       </c>
       <c r="K73" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L73">
         <v>2023</v>
@@ -3553,7 +3554,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K74" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L74">
         <v>2023</v>
@@ -3591,7 +3592,7 @@
         <v>104000</v>
       </c>
       <c r="K75" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L75">
         <v>2023</v>
@@ -3599,7 +3600,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K76" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L76">
         <v>2023</v>
@@ -3637,7 +3638,7 @@
         <v>1034750</v>
       </c>
       <c r="K77" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L77">
         <v>2023</v>
@@ -3645,7 +3646,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K78" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L78">
         <v>2023</v>
@@ -3653,7 +3654,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K79" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L79">
         <v>2023</v>
@@ -3661,7 +3662,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K80" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L80">
         <v>2023</v>
@@ -3672,7 +3673,7 @@
         <v>75</v>
       </c>
       <c r="K81" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L81">
         <v>2023</v>
@@ -3680,7 +3681,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K82" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L82">
         <v>2023</v>
@@ -3718,7 +3719,7 @@
         <v>825000</v>
       </c>
       <c r="K83" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L83">
         <v>2023</v>
@@ -3726,7 +3727,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K84" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L84">
         <v>2023</v>
@@ -3734,7 +3735,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="B85">
         <v>15</v>
@@ -3749,22 +3750,22 @@
         <v>15</v>
       </c>
       <c r="F85" t="s">
+        <v>80</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
         <v>81</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>82</v>
-      </c>
-      <c r="I85" t="s">
-        <v>83</v>
       </c>
       <c r="J85">
         <v>920000</v>
       </c>
       <c r="K85" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L85">
         <v>2023</v>
@@ -3772,7 +3773,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K86" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L86">
         <v>2023</v>
@@ -3780,7 +3781,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>414</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -3795,22 +3796,22 @@
         <v>4</v>
       </c>
       <c r="F87" t="s">
+        <v>83</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
+        <v>84</v>
+      </c>
+      <c r="I87" t="s">
         <v>85</v>
-      </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" t="s">
-        <v>86</v>
-      </c>
-      <c r="I87" t="s">
-        <v>87</v>
       </c>
       <c r="J87">
         <v>310000</v>
       </c>
       <c r="K87" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L87">
         <v>2023</v>
@@ -3818,7 +3819,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K88" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L88">
         <v>2023</v>
@@ -3826,7 +3827,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -3841,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s">
         <v>12</v>
@@ -3850,13 +3851,13 @@
         <v>54</v>
       </c>
       <c r="I89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J89">
         <v>150000</v>
       </c>
       <c r="K89" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L89">
         <v>2023</v>
@@ -3864,7 +3865,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K90" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L90">
         <v>2023</v>
@@ -3872,7 +3873,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>10</v>
@@ -3887,22 +3888,22 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G91" t="s">
         <v>12</v>
       </c>
       <c r="H91" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I91" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J91">
         <v>890000</v>
       </c>
       <c r="K91" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L91">
         <v>2023</v>
@@ -3910,7 +3911,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K92" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L92">
         <v>2023</v>
@@ -3918,7 +3919,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>26</v>
@@ -3933,22 +3934,22 @@
         <v>26</v>
       </c>
       <c r="F93" t="s">
+        <v>93</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" t="s">
+        <v>94</v>
+      </c>
+      <c r="I93" t="s">
         <v>95</v>
-      </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" t="s">
-        <v>96</v>
-      </c>
-      <c r="I93" t="s">
-        <v>97</v>
       </c>
       <c r="J93">
         <v>1840000</v>
       </c>
       <c r="K93" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L93">
         <v>2023</v>
@@ -3956,7 +3957,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K94" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L94">
         <v>2023</v>
@@ -3964,7 +3965,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B95">
         <v>70</v>
@@ -3979,22 +3980,22 @@
         <v>70</v>
       </c>
       <c r="F95" t="s">
+        <v>97</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>98</v>
+      </c>
+      <c r="I95" t="s">
         <v>99</v>
-      </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" t="s">
-        <v>100</v>
-      </c>
-      <c r="I95" t="s">
-        <v>101</v>
       </c>
       <c r="J95">
         <v>4935000</v>
       </c>
       <c r="K95" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L95">
         <v>2023</v>
@@ -4002,7 +4003,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K96" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L96">
         <v>2023</v>
@@ -4010,7 +4011,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K97" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L97">
         <v>2023</v>
@@ -4018,7 +4019,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K98" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L98">
         <v>2023</v>
@@ -4026,10 +4027,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K99" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L99">
         <v>2023</v>
@@ -4037,7 +4038,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K100" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L100">
         <v>2023</v>
@@ -4045,7 +4046,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>81</v>
@@ -4060,22 +4061,22 @@
         <v>82</v>
       </c>
       <c r="F101" t="s">
+        <v>102</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="s">
+        <v>103</v>
+      </c>
+      <c r="I101" t="s">
         <v>104</v>
-      </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
-      <c r="H101" t="s">
-        <v>105</v>
-      </c>
-      <c r="I101" t="s">
-        <v>106</v>
       </c>
       <c r="J101">
         <v>276000</v>
       </c>
       <c r="K101" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L101">
         <v>2023</v>
@@ -4083,7 +4084,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K102" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L102">
         <v>2023</v>
@@ -4091,7 +4092,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B103">
         <v>408</v>
@@ -4106,22 +4107,22 @@
         <v>409</v>
       </c>
       <c r="F103" t="s">
+        <v>106</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>107</v>
+      </c>
+      <c r="I103" t="s">
         <v>108</v>
-      </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" t="s">
-        <v>109</v>
-      </c>
-      <c r="I103" t="s">
-        <v>110</v>
       </c>
       <c r="J103">
         <v>2427000</v>
       </c>
       <c r="K103" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L103">
         <v>2023</v>
@@ -4129,7 +4130,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K104" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L104">
         <v>2023</v>
@@ -4137,7 +4138,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B105">
         <v>489</v>
@@ -4152,22 +4153,22 @@
         <v>491</v>
       </c>
       <c r="F105" t="s">
+        <v>110</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>111</v>
+      </c>
+      <c r="I105" t="s">
         <v>112</v>
-      </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
-      <c r="H105" t="s">
-        <v>113</v>
-      </c>
-      <c r="I105" t="s">
-        <v>114</v>
       </c>
       <c r="J105">
         <v>2703000</v>
       </c>
       <c r="K105" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L105">
         <v>2023</v>
@@ -4175,7 +4176,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K106" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L106">
         <v>2023</v>
@@ -4183,7 +4184,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K107" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L107">
         <v>2023</v>
@@ -4191,7 +4192,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K108" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L108">
         <v>2023</v>
@@ -4199,10 +4200,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K109" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L109">
         <v>2023</v>
@@ -4210,7 +4211,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K110" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L110">
         <v>2023</v>
@@ -4218,7 +4219,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B111">
         <v>21</v>
@@ -4233,7 +4234,7 @@
         <v>21</v>
       </c>
       <c r="F111" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G111" t="s">
         <v>12</v>
@@ -4242,13 +4243,13 @@
         <v>12</v>
       </c>
       <c r="I111" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J111">
         <v>94500</v>
       </c>
       <c r="K111" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L111">
         <v>2023</v>
@@ -4256,7 +4257,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K112" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L112">
         <v>2023</v>
@@ -4264,7 +4265,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -4279,7 +4280,7 @@
         <v>4</v>
       </c>
       <c r="F113" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G113" t="s">
         <v>12</v>
@@ -4288,13 +4289,13 @@
         <v>12</v>
       </c>
       <c r="I113" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J113">
         <v>18000</v>
       </c>
       <c r="K113" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L113">
         <v>2023</v>
@@ -4302,7 +4303,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K114" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L114">
         <v>2023</v>
@@ -4310,7 +4311,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -4325,7 +4326,7 @@
         <v>3</v>
       </c>
       <c r="F115" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G115" t="s">
         <v>12</v>
@@ -4334,13 +4335,13 @@
         <v>12</v>
       </c>
       <c r="I115" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J115">
         <v>13500</v>
       </c>
       <c r="K115" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L115">
         <v>2023</v>
@@ -4348,7 +4349,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K116" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L116">
         <v>2023</v>
@@ -4356,7 +4357,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B117">
         <v>17</v>
@@ -4371,7 +4372,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G117" t="s">
         <v>12</v>
@@ -4380,13 +4381,13 @@
         <v>12</v>
       </c>
       <c r="I117" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J117">
         <v>76500</v>
       </c>
       <c r="K117" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L117">
         <v>2023</v>
@@ -4394,7 +4395,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K118" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L118">
         <v>2023</v>
@@ -4402,7 +4403,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B119">
         <v>82</v>
@@ -4417,22 +4418,22 @@
         <v>82</v>
       </c>
       <c r="F119" t="s">
+        <v>123</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" t="s">
+        <v>124</v>
+      </c>
+      <c r="I119" t="s">
         <v>125</v>
-      </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119" t="s">
-        <v>126</v>
-      </c>
-      <c r="I119" t="s">
-        <v>127</v>
       </c>
       <c r="J119">
         <v>363000</v>
       </c>
       <c r="K119" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L119">
         <v>2023</v>
@@ -4440,7 +4441,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K120" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L120">
         <v>2023</v>
@@ -4448,7 +4449,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B121">
         <v>72</v>
@@ -4463,7 +4464,7 @@
         <v>72</v>
       </c>
       <c r="F121" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G121" t="s">
         <v>12</v>
@@ -4472,13 +4473,13 @@
         <v>12</v>
       </c>
       <c r="I121" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J121">
         <v>324000</v>
       </c>
       <c r="K121" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L121">
         <v>2023</v>
@@ -4486,7 +4487,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K122" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L122">
         <v>2023</v>
@@ -4494,7 +4495,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -4509,22 +4510,22 @@
         <v>5</v>
       </c>
       <c r="F123" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G123" t="s">
         <v>12</v>
       </c>
       <c r="H123" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I123" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J123">
         <v>21000</v>
       </c>
       <c r="K123" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L123">
         <v>2023</v>
@@ -4532,7 +4533,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K124" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L124">
         <v>2023</v>
@@ -4540,7 +4541,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B125">
         <v>70</v>
@@ -4555,7 +4556,7 @@
         <v>70</v>
       </c>
       <c r="F125" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G125" t="s">
         <v>12</v>
@@ -4564,13 +4565,13 @@
         <v>12</v>
       </c>
       <c r="I125" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J125">
         <v>315000</v>
       </c>
       <c r="K125" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L125">
         <v>2023</v>
@@ -4578,7 +4579,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K126" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L126">
         <v>2023</v>
@@ -4586,7 +4587,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -4601,7 +4602,7 @@
         <v>5</v>
       </c>
       <c r="F127" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G127" t="s">
         <v>12</v>
@@ -4610,13 +4611,13 @@
         <v>12</v>
       </c>
       <c r="I127" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J127">
         <v>22500</v>
       </c>
       <c r="K127" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L127">
         <v>2023</v>
@@ -4624,7 +4625,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K128" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L128">
         <v>2023</v>
@@ -4632,7 +4633,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B129">
         <v>19</v>
@@ -4647,22 +4648,22 @@
         <v>19</v>
       </c>
       <c r="F129" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G129" t="s">
         <v>12</v>
       </c>
       <c r="H129" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I129" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J129">
         <v>76500</v>
       </c>
       <c r="K129" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L129">
         <v>2023</v>
@@ -4670,7 +4671,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K130" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L130">
         <v>2023</v>
@@ -4678,7 +4679,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B131">
         <v>14</v>
@@ -4693,7 +4694,7 @@
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G131" t="s">
         <v>12</v>
@@ -4702,13 +4703,13 @@
         <v>12</v>
       </c>
       <c r="I131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J131">
         <v>63000</v>
       </c>
       <c r="K131" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L131">
         <v>2023</v>
@@ -4716,7 +4717,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K132" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L132">
         <v>2023</v>
@@ -4724,7 +4725,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B133">
         <v>24</v>
@@ -4739,22 +4740,22 @@
         <v>24</v>
       </c>
       <c r="F133" t="s">
+        <v>140</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
+        <v>141</v>
+      </c>
+      <c r="I133" t="s">
         <v>142</v>
-      </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
-      <c r="H133" t="s">
-        <v>143</v>
-      </c>
-      <c r="I133" t="s">
-        <v>144</v>
       </c>
       <c r="J133">
         <v>103500</v>
       </c>
       <c r="K133" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L133">
         <v>2023</v>
@@ -4762,7 +4763,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K134" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L134">
         <v>2023</v>
@@ -4770,7 +4771,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B135">
         <v>34</v>
@@ -4785,7 +4786,7 @@
         <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G135" t="s">
         <v>12</v>
@@ -4794,13 +4795,13 @@
         <v>12</v>
       </c>
       <c r="I135" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J135">
         <v>153000</v>
       </c>
       <c r="K135" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L135">
         <v>2023</v>
@@ -4808,7 +4809,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K136" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L136">
         <v>2023</v>
@@ -4816,7 +4817,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B137">
         <v>370</v>
@@ -4831,22 +4832,22 @@
         <v>370</v>
       </c>
       <c r="F137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G137" t="s">
         <v>12</v>
       </c>
       <c r="H137" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I137" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J137">
         <v>1644000</v>
       </c>
       <c r="K137" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L137">
         <v>2023</v>
@@ -4854,7 +4855,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K138" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L138">
         <v>2023</v>
@@ -4862,7 +4863,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K139" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L139">
         <v>2023</v>
@@ -4870,7 +4871,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K140" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L140">
         <v>2023</v>
@@ -4878,10 +4879,10 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K141" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L141">
         <v>2023</v>
@@ -4889,7 +4890,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K142" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L142">
         <v>2023</v>
@@ -4897,7 +4898,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B143">
         <v>8</v>
@@ -4912,7 +4913,7 @@
         <v>8</v>
       </c>
       <c r="F143" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G143" t="s">
         <v>12</v>
@@ -4921,13 +4922,13 @@
         <v>12</v>
       </c>
       <c r="I143" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J143">
         <v>32000</v>
       </c>
       <c r="K143" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L143">
         <v>2023</v>
@@ -4935,7 +4936,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K144" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L144">
         <v>2023</v>
@@ -4943,7 +4944,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B145">
         <v>13</v>
@@ -4958,7 +4959,7 @@
         <v>13</v>
       </c>
       <c r="F145" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G145" t="s">
         <v>12</v>
@@ -4967,13 +4968,13 @@
         <v>12</v>
       </c>
       <c r="I145" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J145">
         <v>52000</v>
       </c>
       <c r="K145" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L145">
         <v>2023</v>
@@ -4981,7 +4982,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K146" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L146">
         <v>2023</v>
@@ -4989,7 +4990,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B147">
         <v>12</v>
@@ -5004,7 +5005,7 @@
         <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G147" t="s">
         <v>12</v>
@@ -5013,13 +5014,13 @@
         <v>12</v>
       </c>
       <c r="I147" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J147">
         <v>48000</v>
       </c>
       <c r="K147" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L147">
         <v>2023</v>
@@ -5027,7 +5028,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K148" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L148">
         <v>2023</v>
@@ -5035,7 +5036,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B149">
         <v>62</v>
@@ -5056,16 +5057,16 @@
         <v>12</v>
       </c>
       <c r="H149" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I149" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J149">
         <v>232000</v>
       </c>
       <c r="K149" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L149">
         <v>2023</v>
@@ -5073,7 +5074,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K150" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L150">
         <v>2023</v>
@@ -5081,7 +5082,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B151">
         <v>15</v>
@@ -5096,7 +5097,7 @@
         <v>15</v>
       </c>
       <c r="F151" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G151" t="s">
         <v>12</v>
@@ -5105,13 +5106,13 @@
         <v>12</v>
       </c>
       <c r="I151" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J151">
         <v>60000</v>
       </c>
       <c r="K151" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L151">
         <v>2023</v>
@@ -5119,7 +5120,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K152" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L152">
         <v>2023</v>
@@ -5127,7 +5128,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B153">
         <v>47</v>
@@ -5142,7 +5143,7 @@
         <v>47</v>
       </c>
       <c r="F153" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G153" t="s">
         <v>12</v>
@@ -5151,13 +5152,13 @@
         <v>12</v>
       </c>
       <c r="I153" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J153">
         <v>188000</v>
       </c>
       <c r="K153" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L153">
         <v>2023</v>
@@ -5165,7 +5166,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K154" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L154">
         <v>2023</v>
@@ -5173,7 +5174,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B155">
         <v>34</v>
@@ -5188,7 +5189,7 @@
         <v>34</v>
       </c>
       <c r="F155" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G155" t="s">
         <v>12</v>
@@ -5197,13 +5198,13 @@
         <v>12</v>
       </c>
       <c r="I155" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J155">
         <v>136000</v>
       </c>
       <c r="K155" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L155">
         <v>2023</v>
@@ -5211,7 +5212,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K156" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L156">
         <v>2023</v>
@@ -5219,7 +5220,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B157">
         <v>191</v>
@@ -5234,22 +5235,22 @@
         <v>191</v>
       </c>
       <c r="F157" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G157" t="s">
         <v>12</v>
       </c>
       <c r="H157" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I157" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J157">
         <v>748000</v>
       </c>
       <c r="K157" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L157">
         <v>2023</v>
@@ -5257,7 +5258,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K158" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L158">
         <v>2023</v>
@@ -5265,7 +5266,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K159" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L159">
         <v>2023</v>
@@ -5273,7 +5274,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K160" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L160">
         <v>2023</v>
@@ -5281,10 +5282,10 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K161" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L161">
         <v>2023</v>
@@ -5292,7 +5293,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K162" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L162">
         <v>2023</v>
@@ -5300,7 +5301,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B163">
         <v>5</v>
@@ -5315,7 +5316,7 @@
         <v>5</v>
       </c>
       <c r="F163" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G163" t="s">
         <v>12</v>
@@ -5324,13 +5325,13 @@
         <v>31</v>
       </c>
       <c r="I163" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J163">
         <v>325000</v>
       </c>
       <c r="K163" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L163">
         <v>2023</v>
@@ -5338,7 +5339,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K164" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L164">
         <v>2023</v>
@@ -5346,7 +5347,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B165">
         <v>19</v>
@@ -5361,7 +5362,7 @@
         <v>19</v>
       </c>
       <c r="F165" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G165" t="s">
         <v>12</v>
@@ -5370,13 +5371,13 @@
         <v>12</v>
       </c>
       <c r="I165" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J165">
         <v>95000</v>
       </c>
       <c r="K165" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L165">
         <v>2023</v>
@@ -5384,7 +5385,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K166" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L166">
         <v>2023</v>
@@ -5392,7 +5393,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B167">
         <v>11</v>
@@ -5407,22 +5408,22 @@
         <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G167" t="s">
         <v>12</v>
       </c>
       <c r="H167" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I167" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J167">
         <v>600000</v>
       </c>
       <c r="K167" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L167">
         <v>2023</v>
@@ -5430,7 +5431,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K168" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L168">
         <v>2023</v>
@@ -5438,7 +5439,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B169">
         <v>6</v>
@@ -5453,7 +5454,7 @@
         <v>6</v>
       </c>
       <c r="F169" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G169" t="s">
         <v>12</v>
@@ -5462,13 +5463,13 @@
         <v>12</v>
       </c>
       <c r="I169" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J169">
         <v>27000</v>
       </c>
       <c r="K169" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L169">
         <v>2023</v>
@@ -5476,7 +5477,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K170" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L170">
         <v>2023</v>
@@ -5484,7 +5485,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B171">
         <v>9</v>
@@ -5499,22 +5500,22 @@
         <v>9</v>
       </c>
       <c r="F171" t="s">
+        <v>179</v>
+      </c>
+      <c r="G171" t="s">
+        <v>12</v>
+      </c>
+      <c r="H171" t="s">
+        <v>180</v>
+      </c>
+      <c r="I171" t="s">
         <v>181</v>
-      </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
-      <c r="H171" t="s">
-        <v>182</v>
-      </c>
-      <c r="I171" t="s">
-        <v>183</v>
       </c>
       <c r="J171">
         <v>440000</v>
       </c>
       <c r="K171" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L171">
         <v>2023</v>
@@ -5522,7 +5523,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K172" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L172">
         <v>2023</v>
@@ -5530,7 +5531,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B173">
         <v>50</v>
@@ -5545,22 +5546,22 @@
         <v>50</v>
       </c>
       <c r="F173" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G173" t="s">
         <v>12</v>
       </c>
       <c r="H173" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I173" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J173">
         <v>1487000</v>
       </c>
       <c r="K173" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L173">
         <v>2023</v>
@@ -5568,7 +5569,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K174" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L174">
         <v>2023</v>
@@ -5576,7 +5577,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K175" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L175">
         <v>2023</v>
@@ -5584,7 +5585,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K176" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L176">
         <v>2023</v>
@@ -5592,10 +5593,10 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K177" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L177">
         <v>2023</v>
@@ -5603,7 +5604,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K178" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L178">
         <v>2023</v>
@@ -5611,7 +5612,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -5626,7 +5627,7 @@
         <v>2</v>
       </c>
       <c r="F179" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G179" t="s">
         <v>12</v>
@@ -5635,13 +5636,13 @@
         <v>12</v>
       </c>
       <c r="I179" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J179">
         <v>7000</v>
       </c>
       <c r="K179" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L179">
         <v>2023</v>
@@ -5649,7 +5650,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K180" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L180">
         <v>2023</v>
@@ -5657,7 +5658,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B181">
         <v>6</v>
@@ -5687,7 +5688,7 @@
         <v>24000</v>
       </c>
       <c r="K181" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L181">
         <v>2023</v>
@@ -5695,7 +5696,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K182" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L182">
         <v>2023</v>
@@ -5703,7 +5704,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B183">
         <v>9</v>
@@ -5718,7 +5719,7 @@
         <v>9</v>
       </c>
       <c r="F183" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G183" t="s">
         <v>12</v>
@@ -5727,13 +5728,13 @@
         <v>12</v>
       </c>
       <c r="I183" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J183">
         <v>31500</v>
       </c>
       <c r="K183" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L183">
         <v>2023</v>
@@ -5741,7 +5742,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K184" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L184">
         <v>2023</v>
@@ -5749,7 +5750,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B185">
         <v>22</v>
@@ -5764,7 +5765,7 @@
         <v>22</v>
       </c>
       <c r="F185" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G185" t="s">
         <v>12</v>
@@ -5773,13 +5774,13 @@
         <v>12</v>
       </c>
       <c r="I185" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J185">
         <v>66000</v>
       </c>
       <c r="K185" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L185">
         <v>2023</v>
@@ -5787,7 +5788,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K186" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L186">
         <v>2023</v>
@@ -5795,7 +5796,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -5810,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G187" t="s">
         <v>12</v>
@@ -5819,13 +5820,13 @@
         <v>12</v>
       </c>
       <c r="I187" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J187">
         <v>3000</v>
       </c>
       <c r="K187" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L187">
         <v>2023</v>
@@ -5833,7 +5834,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K188" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L188">
         <v>2023</v>
@@ -5841,7 +5842,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B189">
         <v>3</v>
@@ -5871,7 +5872,7 @@
         <v>10500</v>
       </c>
       <c r="K189" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L189">
         <v>2023</v>
@@ -5879,7 +5880,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K190" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L190">
         <v>2023</v>
@@ -5887,7 +5888,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B191">
         <v>43</v>
@@ -5902,7 +5903,7 @@
         <v>43</v>
       </c>
       <c r="F191" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G191" t="s">
         <v>12</v>
@@ -5911,13 +5912,13 @@
         <v>12</v>
       </c>
       <c r="I191" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J191">
         <v>142000</v>
       </c>
       <c r="K191" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L191">
         <v>2023</v>
@@ -5925,7 +5926,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K192" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L192">
         <v>2023</v>
@@ -5933,7 +5934,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K193" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L193">
         <v>2023</v>
@@ -5941,7 +5942,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K194" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L194">
         <v>2023</v>
@@ -5949,10 +5950,10 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K195" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L195">
         <v>2023</v>
@@ -5960,7 +5961,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K196" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L196">
         <v>2023</v>
@@ -5968,7 +5969,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B197">
         <v>3</v>
@@ -5983,7 +5984,7 @@
         <v>3</v>
       </c>
       <c r="F197" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G197" t="s">
         <v>12</v>
@@ -5992,13 +5993,13 @@
         <v>12</v>
       </c>
       <c r="I197" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J197">
         <v>150000</v>
       </c>
       <c r="K197" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L197">
         <v>2023</v>
@@ -6006,7 +6007,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K198" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L198">
         <v>2023</v>
@@ -6014,7 +6015,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -6041,7 +6042,7 @@
         <v>12</v>
       </c>
       <c r="K199" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L199">
         <v>2023</v>
@@ -6049,7 +6050,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K200" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L200">
         <v>2023</v>
@@ -6057,7 +6058,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B201">
         <v>2</v>
@@ -6072,22 +6073,22 @@
         <v>2</v>
       </c>
       <c r="F201" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G201" t="s">
         <v>12</v>
       </c>
       <c r="H201" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I201" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J201">
         <v>95000</v>
       </c>
       <c r="K201" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L201">
         <v>2023</v>
@@ -6095,7 +6096,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K202" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L202">
         <v>2023</v>
@@ -6103,7 +6104,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -6118,7 +6119,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G203" t="s">
         <v>12</v>
@@ -6127,13 +6128,13 @@
         <v>12</v>
       </c>
       <c r="I203" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J203">
         <v>55000</v>
       </c>
       <c r="K203" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L203">
         <v>2023</v>
@@ -6141,7 +6142,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K204" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L204">
         <v>2023</v>
@@ -6149,7 +6150,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B205">
         <v>13</v>
@@ -6164,7 +6165,7 @@
         <v>13</v>
       </c>
       <c r="F205" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G205" t="s">
         <v>12</v>
@@ -6173,13 +6174,13 @@
         <v>12</v>
       </c>
       <c r="I205" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J205">
         <v>390000</v>
       </c>
       <c r="K205" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L205">
         <v>2023</v>
@@ -6187,7 +6188,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K206" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L206">
         <v>2023</v>
@@ -6195,7 +6196,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B207">
         <v>2</v>
@@ -6210,7 +6211,7 @@
         <v>2</v>
       </c>
       <c r="F207" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G207" t="s">
         <v>12</v>
@@ -6219,13 +6220,13 @@
         <v>12</v>
       </c>
       <c r="I207" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J207">
         <v>60000</v>
       </c>
       <c r="K207" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L207">
         <v>2023</v>
@@ -6233,7 +6234,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K208" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L208">
         <v>2023</v>
@@ -6241,7 +6242,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B209">
         <v>21</v>
@@ -6256,22 +6257,22 @@
         <v>22</v>
       </c>
       <c r="F209" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G209" t="s">
         <v>12</v>
       </c>
       <c r="H209" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I209" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J209">
         <v>750000</v>
       </c>
       <c r="K209" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L209">
         <v>2023</v>
@@ -6279,7 +6280,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K210" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L210">
         <v>2023</v>
@@ -6287,7 +6288,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K211" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L211">
         <v>2023</v>
@@ -6295,7 +6296,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K212" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L212">
         <v>2023</v>
@@ -6303,10 +6304,10 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K213" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L213">
         <v>2023</v>
@@ -6314,7 +6315,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K214" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L214">
         <v>2023</v>
@@ -6322,7 +6323,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B215">
         <v>38</v>
@@ -6337,7 +6338,7 @@
         <v>38</v>
       </c>
       <c r="F215" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G215" t="s">
         <v>12</v>
@@ -6346,13 +6347,13 @@
         <v>12</v>
       </c>
       <c r="I215" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J215">
         <v>228000</v>
       </c>
       <c r="K215" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L215">
         <v>2023</v>
@@ -6360,7 +6361,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K216" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L216">
         <v>2023</v>
@@ -6368,7 +6369,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B217">
         <v>16</v>
@@ -6383,7 +6384,7 @@
         <v>16</v>
       </c>
       <c r="F217" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G217" t="s">
         <v>12</v>
@@ -6392,13 +6393,13 @@
         <v>12</v>
       </c>
       <c r="I217" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J217">
         <v>96000</v>
       </c>
       <c r="K217" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L217">
         <v>2023</v>
@@ -6406,7 +6407,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K218" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L218">
         <v>2023</v>
@@ -6414,7 +6415,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B219">
         <v>61</v>
@@ -6429,7 +6430,7 @@
         <v>61</v>
       </c>
       <c r="F219" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G219" t="s">
         <v>12</v>
@@ -6438,13 +6439,13 @@
         <v>12</v>
       </c>
       <c r="I219" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J219">
         <v>366000</v>
       </c>
       <c r="K219" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L219">
         <v>2023</v>
@@ -6452,7 +6453,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K220" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L220">
         <v>2023</v>
@@ -6460,7 +6461,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B221">
         <v>32</v>
@@ -6475,7 +6476,7 @@
         <v>32</v>
       </c>
       <c r="F221" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G221" t="s">
         <v>12</v>
@@ -6484,13 +6485,13 @@
         <v>12</v>
       </c>
       <c r="I221" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J221">
         <v>192000</v>
       </c>
       <c r="K221" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L221">
         <v>2023</v>
@@ -6498,7 +6499,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K222" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L222">
         <v>2023</v>
@@ -6506,7 +6507,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B223">
         <v>8</v>
@@ -6521,7 +6522,7 @@
         <v>8</v>
       </c>
       <c r="F223" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G223" t="s">
         <v>12</v>
@@ -6530,13 +6531,13 @@
         <v>12</v>
       </c>
       <c r="I223" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J223">
         <v>48000</v>
       </c>
       <c r="K223" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L223">
         <v>2023</v>
@@ -6544,7 +6545,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K224" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L224">
         <v>2023</v>
@@ -6552,7 +6553,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B225">
         <v>155</v>
@@ -6567,7 +6568,7 @@
         <v>155</v>
       </c>
       <c r="F225" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G225" t="s">
         <v>12</v>
@@ -6576,13 +6577,13 @@
         <v>12</v>
       </c>
       <c r="I225" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J225">
         <v>930000</v>
       </c>
       <c r="K225" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L225">
         <v>2023</v>
@@ -6590,7 +6591,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K226" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L226">
         <v>2023</v>
@@ -6598,7 +6599,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K227" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L227">
         <v>2023</v>
@@ -6606,7 +6607,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K228" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L228">
         <v>2023</v>
@@ -6614,10 +6615,10 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K229" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L229">
         <v>2023</v>
@@ -6625,7 +6626,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K230" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L230">
         <v>2023</v>
@@ -6633,7 +6634,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -6648,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G231" t="s">
         <v>12</v>
@@ -6657,13 +6658,13 @@
         <v>12</v>
       </c>
       <c r="I231" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J231">
         <v>3500</v>
       </c>
       <c r="K231" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L231">
         <v>2023</v>
@@ -6671,7 +6672,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K232" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L232">
         <v>2023</v>
@@ -6679,7 +6680,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -6694,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="F233" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G233" t="s">
         <v>12</v>
@@ -6703,13 +6704,13 @@
         <v>12</v>
       </c>
       <c r="I233" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J233">
         <v>45000</v>
       </c>
       <c r="K233" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L233">
         <v>2023</v>
@@ -6717,7 +6718,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K234" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L234">
         <v>2023</v>
@@ -6725,7 +6726,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B235">
         <v>4</v>
@@ -6740,7 +6741,7 @@
         <v>4</v>
       </c>
       <c r="F235" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G235" t="s">
         <v>12</v>
@@ -6749,13 +6750,13 @@
         <v>12</v>
       </c>
       <c r="I235" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J235">
         <v>10000</v>
       </c>
       <c r="K235" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L235">
         <v>2023</v>
@@ -6763,7 +6764,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K236" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L236">
         <v>2023</v>
@@ -6771,7 +6772,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B237">
         <v>5</v>
@@ -6786,7 +6787,7 @@
         <v>5</v>
       </c>
       <c r="F237" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G237" t="s">
         <v>12</v>
@@ -6795,13 +6796,13 @@
         <v>12</v>
       </c>
       <c r="I237" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J237">
         <v>175000</v>
       </c>
       <c r="K237" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L237">
         <v>2023</v>
@@ -6809,7 +6810,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K238" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L238">
         <v>2023</v>
@@ -6817,7 +6818,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -6832,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="F239" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G239" t="s">
         <v>12</v>
@@ -6841,13 +6842,13 @@
         <v>12</v>
       </c>
       <c r="I239" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J239">
         <v>55000</v>
       </c>
       <c r="K239" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L239">
         <v>2023</v>
@@ -6855,7 +6856,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K240" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L240">
         <v>2023</v>
@@ -6863,7 +6864,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B241">
         <v>12</v>
@@ -6878,7 +6879,7 @@
         <v>12</v>
       </c>
       <c r="F241" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G241" t="s">
         <v>12</v>
@@ -6887,13 +6888,13 @@
         <v>12</v>
       </c>
       <c r="I241" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J241">
         <v>288500</v>
       </c>
       <c r="K241" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L241">
         <v>2023</v>
@@ -6901,7 +6902,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K242" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L242">
         <v>2023</v>
@@ -6909,7 +6910,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K243" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L243">
         <v>2023</v>
@@ -6917,7 +6918,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K244" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L244">
         <v>2023</v>
@@ -6925,10 +6926,10 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K245" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L245">
         <v>2023</v>
@@ -6936,7 +6937,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K246" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L246">
         <v>2023</v>
@@ -6944,7 +6945,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B247">
         <v>43</v>
@@ -6959,22 +6960,22 @@
         <v>43</v>
       </c>
       <c r="F247" t="s">
+        <v>236</v>
+      </c>
+      <c r="G247" t="s">
+        <v>12</v>
+      </c>
+      <c r="H247" t="s">
+        <v>237</v>
+      </c>
+      <c r="I247" t="s">
         <v>238</v>
-      </c>
-      <c r="G247" t="s">
-        <v>12</v>
-      </c>
-      <c r="H247" t="s">
-        <v>239</v>
-      </c>
-      <c r="I247" t="s">
-        <v>240</v>
       </c>
       <c r="J247">
         <v>168000</v>
       </c>
       <c r="K247" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L247">
         <v>2023</v>
@@ -6982,7 +6983,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K248" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L248">
         <v>2023</v>
@@ -6990,7 +6991,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B249">
         <v>4</v>
@@ -7020,7 +7021,7 @@
         <v>24000</v>
       </c>
       <c r="K249" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L249">
         <v>2023</v>
@@ -7028,7 +7029,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K250" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L250">
         <v>2023</v>
@@ -7036,7 +7037,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B251">
         <v>5</v>
@@ -7051,7 +7052,7 @@
         <v>5</v>
       </c>
       <c r="F251" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G251" t="s">
         <v>12</v>
@@ -7060,13 +7061,13 @@
         <v>12</v>
       </c>
       <c r="I251" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J251">
         <v>25000</v>
       </c>
       <c r="K251" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L251">
         <v>2023</v>
@@ -7074,7 +7075,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K252" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L252">
         <v>2023</v>
@@ -7082,7 +7083,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B253">
         <v>15</v>
@@ -7097,7 +7098,7 @@
         <v>15</v>
       </c>
       <c r="F253" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G253" t="s">
         <v>12</v>
@@ -7106,13 +7107,13 @@
         <v>12</v>
       </c>
       <c r="I253" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J253">
         <v>75000</v>
       </c>
       <c r="K253" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L253">
         <v>2023</v>
@@ -7120,7 +7121,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K254" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L254">
         <v>2023</v>
@@ -7128,7 +7129,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B255">
         <v>67</v>
@@ -7143,22 +7144,22 @@
         <v>67</v>
       </c>
       <c r="F255" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G255" t="s">
         <v>12</v>
       </c>
       <c r="H255" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I255" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J255">
         <v>292000</v>
       </c>
       <c r="K255" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L255">
         <v>2023</v>
@@ -7166,7 +7167,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K256" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L256">
         <v>2023</v>
@@ -7174,7 +7175,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K257" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L257">
         <v>2023</v>
@@ -7182,7 +7183,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K258" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L258">
         <v>2023</v>
@@ -7190,10 +7191,10 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K259" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L259">
         <v>2023</v>
@@ -7201,7 +7202,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K260" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L260">
         <v>2023</v>
@@ -7209,7 +7210,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B261">
         <v>2</v>
@@ -7239,7 +7240,7 @@
         <v>15000</v>
       </c>
       <c r="K261" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L261">
         <v>2023</v>
@@ -7247,7 +7248,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K262" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L262">
         <v>2023</v>
@@ -7255,7 +7256,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B263">
         <v>35</v>
@@ -7270,7 +7271,7 @@
         <v>35</v>
       </c>
       <c r="F263" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G263" t="s">
         <v>12</v>
@@ -7279,13 +7280,13 @@
         <v>12</v>
       </c>
       <c r="I263" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J263">
         <v>297500</v>
       </c>
       <c r="K263" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L263">
         <v>2023</v>
@@ -7293,7 +7294,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K264" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L264">
         <v>2023</v>
@@ -7301,7 +7302,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B265">
         <v>13</v>
@@ -7331,7 +7332,7 @@
         <v>104000</v>
       </c>
       <c r="K265" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L265">
         <v>2023</v>
@@ -7339,7 +7340,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K266" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L266">
         <v>2023</v>
@@ -7347,7 +7348,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B267">
         <v>2</v>
@@ -7377,7 +7378,7 @@
         <v>24000</v>
       </c>
       <c r="K267" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L267">
         <v>2023</v>
@@ -7385,7 +7386,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K268" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L268">
         <v>2023</v>
@@ -7393,7 +7394,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B269">
         <v>7</v>
@@ -7408,7 +7409,7 @@
         <v>7</v>
       </c>
       <c r="F269" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G269" t="s">
         <v>12</v>
@@ -7417,13 +7418,13 @@
         <v>12</v>
       </c>
       <c r="I269" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J269">
         <v>56000</v>
       </c>
       <c r="K269" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L269">
         <v>2023</v>
@@ -7431,7 +7432,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K270" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L270">
         <v>2023</v>
@@ -7439,7 +7440,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B271">
         <v>48</v>
@@ -7454,7 +7455,7 @@
         <v>48</v>
       </c>
       <c r="F271" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G271" t="s">
         <v>12</v>
@@ -7463,13 +7464,13 @@
         <v>12</v>
       </c>
       <c r="I271" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J271">
         <v>360000</v>
       </c>
       <c r="K271" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L271">
         <v>2023</v>
@@ -7477,7 +7478,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K272" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L272">
         <v>2023</v>
@@ -7485,7 +7486,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B273">
         <v>83</v>
@@ -7500,7 +7501,7 @@
         <v>83</v>
       </c>
       <c r="F273" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G273" t="s">
         <v>12</v>
@@ -7509,13 +7510,13 @@
         <v>12</v>
       </c>
       <c r="I273" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J273">
         <v>498000</v>
       </c>
       <c r="K273" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L273">
         <v>2023</v>
@@ -7523,7 +7524,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K274" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L274">
         <v>2023</v>
@@ -7531,7 +7532,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B275">
         <v>190</v>
@@ -7546,7 +7547,7 @@
         <v>190</v>
       </c>
       <c r="F275" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G275" t="s">
         <v>12</v>
@@ -7555,13 +7556,13 @@
         <v>12</v>
       </c>
       <c r="I275" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J275">
         <v>1354500</v>
       </c>
       <c r="K275" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L275">
         <v>2023</v>
@@ -7569,7 +7570,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K276" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L276">
         <v>2023</v>
@@ -7577,7 +7578,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K277" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L277">
         <v>2023</v>
@@ -7585,7 +7586,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K278" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L278">
         <v>2023</v>
@@ -7593,10 +7594,10 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K279" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L279">
         <v>2023</v>
@@ -7604,7 +7605,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K280" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L280">
         <v>2023</v>
@@ -7612,7 +7613,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B281">
         <v>2</v>
@@ -7627,7 +7628,7 @@
         <v>2</v>
       </c>
       <c r="F281" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G281" t="s">
         <v>12</v>
@@ -7636,13 +7637,13 @@
         <v>12</v>
       </c>
       <c r="I281" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J281">
         <v>6000</v>
       </c>
       <c r="K281" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L281">
         <v>2023</v>
@@ -7650,7 +7651,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K282" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L282">
         <v>2023</v>
@@ -7658,7 +7659,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B283">
         <v>23</v>
@@ -7673,7 +7674,7 @@
         <v>23</v>
       </c>
       <c r="F283" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G283" t="s">
         <v>12</v>
@@ -7682,13 +7683,13 @@
         <v>12</v>
       </c>
       <c r="I283" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J283">
         <v>920000</v>
       </c>
       <c r="K283" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L283">
         <v>2023</v>
@@ -7696,7 +7697,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K284" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L284">
         <v>2023</v>
@@ -7704,7 +7705,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B285">
         <v>2</v>
@@ -7719,7 +7720,7 @@
         <v>2</v>
       </c>
       <c r="F285" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G285" t="s">
         <v>12</v>
@@ -7728,13 +7729,13 @@
         <v>12</v>
       </c>
       <c r="I285" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J285">
         <v>6000</v>
       </c>
       <c r="K285" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L285">
         <v>2023</v>
@@ -7742,7 +7743,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K286" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L286">
         <v>2023</v>
@@ -7750,7 +7751,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B287">
         <v>3</v>
@@ -7765,7 +7766,7 @@
         <v>3</v>
       </c>
       <c r="F287" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G287" t="s">
         <v>12</v>
@@ -7774,13 +7775,13 @@
         <v>12</v>
       </c>
       <c r="I287" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J287">
         <v>120000</v>
       </c>
       <c r="K287" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L287">
         <v>2023</v>
@@ -7788,7 +7789,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K288" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L288">
         <v>2023</v>
@@ -7796,7 +7797,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B289">
         <v>30</v>
@@ -7811,7 +7812,7 @@
         <v>30</v>
       </c>
       <c r="F289" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G289" t="s">
         <v>12</v>
@@ -7820,13 +7821,13 @@
         <v>12</v>
       </c>
       <c r="I289" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J289">
         <v>1052000</v>
       </c>
       <c r="K289" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L289">
         <v>2023</v>
@@ -7834,7 +7835,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K290" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L290">
         <v>2023</v>
@@ -7842,7 +7843,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K291" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L291">
         <v>2023</v>
@@ -7850,7 +7851,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K292" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L292">
         <v>2023</v>
@@ -7858,10 +7859,10 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K293" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L293">
         <v>2023</v>
@@ -7869,7 +7870,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K294" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L294">
         <v>2023</v>
@@ -7877,7 +7878,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B295">
         <v>21</v>
@@ -7892,7 +7893,7 @@
         <v>21</v>
       </c>
       <c r="F295" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G295" t="s">
         <v>12</v>
@@ -7901,13 +7902,13 @@
         <v>12</v>
       </c>
       <c r="I295" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J295">
         <v>84000</v>
       </c>
       <c r="K295" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L295">
         <v>2023</v>
@@ -7915,7 +7916,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K296" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L296">
         <v>2023</v>
@@ -7923,7 +7924,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B297">
         <v>13</v>
@@ -7938,7 +7939,7 @@
         <v>13</v>
       </c>
       <c r="F297" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G297" t="s">
         <v>12</v>
@@ -7947,13 +7948,13 @@
         <v>12</v>
       </c>
       <c r="I297" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J297">
         <v>52000</v>
       </c>
       <c r="K297" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L297">
         <v>2023</v>
@@ -7961,7 +7962,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K298" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L298">
         <v>2023</v>
@@ -7969,7 +7970,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B299">
         <v>5</v>
@@ -7999,7 +8000,7 @@
         <v>15000</v>
       </c>
       <c r="K299" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L299">
         <v>2023</v>
@@ -8007,7 +8008,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K300" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L300">
         <v>2023</v>
@@ -8015,7 +8016,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B301">
         <v>2</v>
@@ -8030,7 +8031,7 @@
         <v>2</v>
       </c>
       <c r="F301" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G301" t="s">
         <v>12</v>
@@ -8039,13 +8040,13 @@
         <v>12</v>
       </c>
       <c r="I301" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J301">
         <v>8000</v>
       </c>
       <c r="K301" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L301">
         <v>2023</v>
@@ -8053,7 +8054,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K302" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L302">
         <v>2023</v>
@@ -8061,7 +8062,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B303">
         <v>14</v>
@@ -8076,7 +8077,7 @@
         <v>14</v>
       </c>
       <c r="F303" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G303" t="s">
         <v>12</v>
@@ -8085,13 +8086,13 @@
         <v>12</v>
       </c>
       <c r="I303" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J303">
         <v>56000</v>
       </c>
       <c r="K303" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L303">
         <v>2023</v>
@@ -8099,7 +8100,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K304" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L304">
         <v>2023</v>
@@ -8107,7 +8108,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B305">
         <v>55</v>
@@ -8122,7 +8123,7 @@
         <v>55</v>
       </c>
       <c r="F305" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G305" t="s">
         <v>12</v>
@@ -8131,13 +8132,13 @@
         <v>12</v>
       </c>
       <c r="I305" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J305">
         <v>215000</v>
       </c>
       <c r="K305" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L305">
         <v>2023</v>
@@ -8145,7 +8146,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K306" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L306">
         <v>2023</v>
@@ -8153,7 +8154,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K307" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L307">
         <v>2023</v>
@@ -8161,7 +8162,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K308" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L308">
         <v>2023</v>
@@ -8169,10 +8170,10 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K309" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L309">
         <v>2023</v>
@@ -8180,7 +8181,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K310" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L310">
         <v>2023</v>
@@ -8188,7 +8189,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B311">
         <v>13</v>
@@ -8203,7 +8204,7 @@
         <v>13</v>
       </c>
       <c r="F311" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G311" t="s">
         <v>12</v>
@@ -8212,13 +8213,13 @@
         <v>12</v>
       </c>
       <c r="I311" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J311">
         <v>32500</v>
       </c>
       <c r="K311" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L311">
         <v>2023</v>
@@ -8226,7 +8227,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K312" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L312">
         <v>2023</v>
@@ -8234,7 +8235,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B313">
         <v>6</v>
@@ -8249,7 +8250,7 @@
         <v>6</v>
       </c>
       <c r="F313" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G313" t="s">
         <v>12</v>
@@ -8258,13 +8259,13 @@
         <v>12</v>
       </c>
       <c r="I313" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J313">
         <v>210000</v>
       </c>
       <c r="K313" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L313">
         <v>2023</v>
@@ -8272,7 +8273,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K314" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L314">
         <v>2023</v>
@@ -8280,7 +8281,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B315">
         <v>9</v>
@@ -8295,7 +8296,7 @@
         <v>9</v>
       </c>
       <c r="F315" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G315" t="s">
         <v>12</v>
@@ -8304,13 +8305,13 @@
         <v>12</v>
       </c>
       <c r="I315" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J315">
         <v>13500</v>
       </c>
       <c r="K315" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L315">
         <v>2023</v>
@@ -8318,7 +8319,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K316" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L316">
         <v>2023</v>
@@ -8326,7 +8327,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -8341,7 +8342,7 @@
         <v>1</v>
       </c>
       <c r="F317" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G317" t="s">
         <v>12</v>
@@ -8350,13 +8351,13 @@
         <v>12</v>
       </c>
       <c r="I317" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J317">
         <v>35000</v>
       </c>
       <c r="K317" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L317">
         <v>2023</v>
@@ -8364,7 +8365,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K318" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L318">
         <v>2023</v>
@@ -8372,7 +8373,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B319">
         <v>4</v>
@@ -8387,7 +8388,7 @@
         <v>4</v>
       </c>
       <c r="F319" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G319" t="s">
         <v>12</v>
@@ -8396,13 +8397,13 @@
         <v>12</v>
       </c>
       <c r="I319" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J319">
         <v>140000</v>
       </c>
       <c r="K319" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L319">
         <v>2023</v>
@@ -8410,7 +8411,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K320" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L320">
         <v>2023</v>
@@ -8418,7 +8419,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B321">
         <v>33</v>
@@ -8433,7 +8434,7 @@
         <v>33</v>
       </c>
       <c r="F321" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G321" t="s">
         <v>12</v>
@@ -8442,13 +8443,13 @@
         <v>12</v>
       </c>
       <c r="I321" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J321">
         <v>82500</v>
       </c>
       <c r="K321" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L321">
         <v>2023</v>
@@ -8456,7 +8457,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K322" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L322">
         <v>2023</v>
@@ -8464,7 +8465,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B323">
         <v>9</v>
@@ -8479,7 +8480,7 @@
         <v>9</v>
       </c>
       <c r="F323" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G323" t="s">
         <v>12</v>
@@ -8488,13 +8489,13 @@
         <v>12</v>
       </c>
       <c r="I323" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J323">
         <v>390000</v>
       </c>
       <c r="K323" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L323">
         <v>2023</v>
@@ -8502,7 +8503,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K324" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L324">
         <v>2023</v>
@@ -8510,7 +8511,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B325">
         <v>6</v>
@@ -8525,22 +8526,22 @@
         <v>6</v>
       </c>
       <c r="F325" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G325" t="s">
         <v>12</v>
       </c>
       <c r="H325" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I325" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J325">
         <v>235000</v>
       </c>
       <c r="K325" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L325">
         <v>2023</v>
@@ -8548,7 +8549,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K326" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L326">
         <v>2023</v>
@@ -8556,7 +8557,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B327">
         <v>2</v>
@@ -8571,7 +8572,7 @@
         <v>2</v>
       </c>
       <c r="F327" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G327" t="s">
         <v>12</v>
@@ -8580,13 +8581,13 @@
         <v>12</v>
       </c>
       <c r="I327" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J327">
         <v>1000</v>
       </c>
       <c r="K327" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L327">
         <v>2023</v>
@@ -8594,7 +8595,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K328" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L328">
         <v>2023</v>
@@ -8602,7 +8603,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B329">
         <v>105</v>
@@ -8617,22 +8618,22 @@
         <v>105</v>
       </c>
       <c r="F329" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G329" t="s">
         <v>12</v>
       </c>
       <c r="H329" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I329" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J329">
         <v>257500</v>
       </c>
       <c r="K329" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L329">
         <v>2023</v>
@@ -8640,7 +8641,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K330" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L330">
         <v>2023</v>
@@ -8648,7 +8649,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B331">
         <v>188</v>
@@ -8663,22 +8664,22 @@
         <v>188</v>
       </c>
       <c r="F331" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G331" t="s">
         <v>12</v>
       </c>
       <c r="H331" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I331" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J331">
         <v>1397000</v>
       </c>
       <c r="K331" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L331">
         <v>2023</v>
@@ -8686,7 +8687,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K332" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L332">
         <v>2023</v>
@@ -8694,7 +8695,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K333" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L333">
         <v>2023</v>
@@ -8702,7 +8703,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K334" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L334">
         <v>2023</v>
@@ -8710,10 +8711,10 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K335" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L335">
         <v>2023</v>
@@ -8721,7 +8722,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K336" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L336">
         <v>2023</v>
@@ -8744,22 +8745,22 @@
         <v>206</v>
       </c>
       <c r="F337" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G337" t="s">
         <v>12</v>
       </c>
       <c r="H337" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I337" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J337">
         <v>306000</v>
       </c>
       <c r="K337" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L337">
         <v>2023</v>
@@ -8767,7 +8768,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K338" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L338">
         <v>2023</v>
@@ -8775,7 +8776,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B339">
         <v>72</v>
@@ -8790,22 +8791,22 @@
         <v>72</v>
       </c>
       <c r="F339" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G339" t="s">
         <v>12</v>
       </c>
       <c r="H339" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I339" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J339">
         <v>106500</v>
       </c>
       <c r="K339" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L339">
         <v>2023</v>
@@ -8813,7 +8814,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K340" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L340">
         <v>2023</v>
@@ -8821,7 +8822,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B341">
         <v>594</v>
@@ -8836,22 +8837,22 @@
         <v>599</v>
       </c>
       <c r="F341" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G341" t="s">
         <v>12</v>
       </c>
       <c r="H341" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I341" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J341">
         <v>291000</v>
       </c>
       <c r="K341" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L341">
         <v>2023</v>
@@ -8859,7 +8860,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K342" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L342">
         <v>2023</v>
@@ -8867,7 +8868,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B343">
         <v>16</v>
@@ -8888,16 +8889,16 @@
         <v>12</v>
       </c>
       <c r="H343" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I343" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J343">
         <v>22500</v>
       </c>
       <c r="K343" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L343">
         <v>2023</v>
@@ -8905,7 +8906,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K344" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L344">
         <v>2023</v>
@@ -8913,7 +8914,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -8928,7 +8929,7 @@
         <v>1</v>
       </c>
       <c r="F345" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G345" t="s">
         <v>12</v>
@@ -8937,13 +8938,13 @@
         <v>12</v>
       </c>
       <c r="I345" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J345">
         <v>2500</v>
       </c>
       <c r="K345" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L345">
         <v>2023</v>
@@ -8951,7 +8952,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K346" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L346">
         <v>2023</v>
@@ -8959,7 +8960,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B347">
         <v>107</v>
@@ -8974,7 +8975,7 @@
         <v>107</v>
       </c>
       <c r="F347" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G347" t="s">
         <v>12</v>
@@ -8983,13 +8984,13 @@
         <v>12</v>
       </c>
       <c r="I347" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J347">
         <v>214000</v>
       </c>
       <c r="K347" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L347">
         <v>2023</v>
@@ -8997,7 +8998,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K348" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L348">
         <v>2023</v>
@@ -9005,7 +9006,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B349">
         <v>32</v>
@@ -9020,7 +9021,7 @@
         <v>32</v>
       </c>
       <c r="F349" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G349" t="s">
         <v>12</v>
@@ -9029,13 +9030,13 @@
         <v>12</v>
       </c>
       <c r="I349" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J349">
         <v>48000</v>
       </c>
       <c r="K349" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L349">
         <v>2023</v>
@@ -9043,7 +9044,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K350" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L350">
         <v>2023</v>
@@ -9066,7 +9067,7 @@
         <v>27</v>
       </c>
       <c r="F351" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G351" t="s">
         <v>12</v>
@@ -9075,13 +9076,13 @@
         <v>12</v>
       </c>
       <c r="I351" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J351">
         <v>54000</v>
       </c>
       <c r="K351" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L351">
         <v>2023</v>
@@ -9089,7 +9090,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K352" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L352">
         <v>2023</v>
@@ -9112,7 +9113,7 @@
         <v>287</v>
       </c>
       <c r="F353" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G353" t="s">
         <v>12</v>
@@ -9121,13 +9122,13 @@
         <v>12</v>
       </c>
       <c r="I353" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J353">
         <v>712500</v>
       </c>
       <c r="K353" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L353">
         <v>2023</v>
@@ -9135,7 +9136,7 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K354" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L354">
         <v>2023</v>
@@ -9143,7 +9144,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B355">
         <v>16</v>
@@ -9158,7 +9159,7 @@
         <v>16</v>
       </c>
       <c r="F355" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G355" t="s">
         <v>12</v>
@@ -9167,13 +9168,13 @@
         <v>12</v>
       </c>
       <c r="I355" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J355">
         <v>8000</v>
       </c>
       <c r="K355" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L355">
         <v>2023</v>
@@ -9181,7 +9182,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K356" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L356">
         <v>2023</v>
@@ -9204,7 +9205,7 @@
         <v>102</v>
       </c>
       <c r="F357" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G357" t="s">
         <v>12</v>
@@ -9213,13 +9214,13 @@
         <v>12</v>
       </c>
       <c r="I357" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J357">
         <v>153000</v>
       </c>
       <c r="K357" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L357">
         <v>2023</v>
@@ -9227,7 +9228,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K358" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L358">
         <v>2023</v>
@@ -9235,10 +9236,10 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B359" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C359">
         <v>7</v>
@@ -9247,25 +9248,25 @@
         <v>0</v>
       </c>
       <c r="E359" t="s">
+        <v>321</v>
+      </c>
+      <c r="F359" t="s">
+        <v>322</v>
+      </c>
+      <c r="G359" t="s">
+        <v>12</v>
+      </c>
+      <c r="H359" t="s">
         <v>323</v>
       </c>
-      <c r="F359" t="s">
+      <c r="I359" t="s">
         <v>324</v>
-      </c>
-      <c r="G359" t="s">
-        <v>12</v>
-      </c>
-      <c r="H359" t="s">
-        <v>325</v>
-      </c>
-      <c r="I359" t="s">
-        <v>326</v>
       </c>
       <c r="J359">
         <v>1918000</v>
       </c>
       <c r="K359" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L359">
         <v>2023</v>
@@ -9273,7 +9274,7 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K360" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L360">
         <v>2023</v>
@@ -9281,7 +9282,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K361" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L361">
         <v>2023</v>
@@ -9289,7 +9290,7 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K362" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L362">
         <v>2023</v>
@@ -9297,10 +9298,10 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K363" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L363">
         <v>2023</v>
@@ -9308,7 +9309,7 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K364" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L364">
         <v>2023</v>
@@ -9316,7 +9317,7 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B365">
         <v>4</v>
@@ -9331,7 +9332,7 @@
         <v>4</v>
       </c>
       <c r="F365" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G365" t="s">
         <v>12</v>
@@ -9340,13 +9341,13 @@
         <v>12</v>
       </c>
       <c r="I365" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J365">
         <v>18000</v>
       </c>
       <c r="K365" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L365">
         <v>2023</v>
@@ -9354,7 +9355,7 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K366" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L366">
         <v>2023</v>
@@ -9362,7 +9363,7 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B367">
         <v>12</v>
@@ -9377,7 +9378,7 @@
         <v>12</v>
       </c>
       <c r="F367" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G367" t="s">
         <v>12</v>
@@ -9386,13 +9387,13 @@
         <v>12</v>
       </c>
       <c r="I367" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J367">
         <v>48000</v>
       </c>
       <c r="K367" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L367">
         <v>2023</v>
@@ -9400,7 +9401,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K368" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L368">
         <v>2023</v>
@@ -9408,7 +9409,7 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B369">
         <v>30</v>
@@ -9423,7 +9424,7 @@
         <v>30</v>
       </c>
       <c r="F369" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G369" t="s">
         <v>12</v>
@@ -9432,13 +9433,13 @@
         <v>12</v>
       </c>
       <c r="I369" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J369">
         <v>120000</v>
       </c>
       <c r="K369" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L369">
         <v>2023</v>
@@ -9446,7 +9447,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K370" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L370">
         <v>2023</v>
@@ -9454,7 +9455,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -9469,7 +9470,7 @@
         <v>1</v>
       </c>
       <c r="F371" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G371" t="s">
         <v>12</v>
@@ -9478,13 +9479,13 @@
         <v>12</v>
       </c>
       <c r="I371" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J371">
         <v>4000</v>
       </c>
       <c r="K371" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L371">
         <v>2023</v>
@@ -9492,7 +9493,7 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K372" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L372">
         <v>2023</v>
@@ -9500,7 +9501,7 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B373">
         <v>9</v>
@@ -9515,7 +9516,7 @@
         <v>9</v>
       </c>
       <c r="F373" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G373" t="s">
         <v>12</v>
@@ -9524,13 +9525,13 @@
         <v>12</v>
       </c>
       <c r="I373" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J373">
         <v>31500</v>
       </c>
       <c r="K373" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L373">
         <v>2023</v>
@@ -9538,7 +9539,7 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K374" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L374">
         <v>2023</v>
@@ -9546,7 +9547,7 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B375">
         <v>14</v>
@@ -9561,7 +9562,7 @@
         <v>14</v>
       </c>
       <c r="F375" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G375" t="s">
         <v>12</v>
@@ -9570,13 +9571,13 @@
         <v>12</v>
       </c>
       <c r="I375" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J375">
         <v>140000</v>
       </c>
       <c r="K375" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L375">
         <v>2023</v>
@@ -9584,7 +9585,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K376" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L376">
         <v>2023</v>
@@ -9592,7 +9593,7 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B377">
         <v>8</v>
@@ -9607,7 +9608,7 @@
         <v>8</v>
       </c>
       <c r="F377" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G377" t="s">
         <v>12</v>
@@ -9616,13 +9617,13 @@
         <v>12</v>
       </c>
       <c r="I377" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J377">
         <v>32000</v>
       </c>
       <c r="K377" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L377">
         <v>2023</v>
@@ -9630,7 +9631,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K378" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L378">
         <v>2023</v>
@@ -9638,7 +9639,7 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B379">
         <v>78</v>
@@ -9653,7 +9654,7 @@
         <v>78</v>
       </c>
       <c r="F379" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G379" t="s">
         <v>12</v>
@@ -9662,13 +9663,13 @@
         <v>12</v>
       </c>
       <c r="I379" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J379">
         <v>393500</v>
       </c>
       <c r="K379" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L379">
         <v>2023</v>
@@ -9676,7 +9677,7 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K380" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L380">
         <v>2023</v>
@@ -9684,7 +9685,7 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K381" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L381">
         <v>2023</v>
@@ -9692,7 +9693,7 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K382" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L382">
         <v>2023</v>
@@ -9700,10 +9701,10 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K383" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L383">
         <v>2023</v>
@@ -9711,7 +9712,7 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K384" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L384">
         <v>2023</v>
@@ -9719,7 +9720,7 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B385">
         <v>8</v>
@@ -9749,7 +9750,7 @@
         <v>144000</v>
       </c>
       <c r="K385" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L385">
         <v>2023</v>
@@ -9757,7 +9758,7 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K386" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L386">
         <v>2023</v>
@@ -9765,7 +9766,7 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B387">
         <v>8</v>
@@ -9780,7 +9781,7 @@
         <v>8</v>
       </c>
       <c r="F387" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G387" t="s">
         <v>12</v>
@@ -9789,13 +9790,13 @@
         <v>12</v>
       </c>
       <c r="I387" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J387">
         <v>120000</v>
       </c>
       <c r="K387" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L387">
         <v>2023</v>
@@ -9803,7 +9804,7 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K388" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L388">
         <v>2023</v>
@@ -9811,7 +9812,7 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B389">
         <v>11</v>
@@ -9826,22 +9827,22 @@
         <v>11</v>
       </c>
       <c r="F389" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G389" t="s">
         <v>12</v>
       </c>
       <c r="H389" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I389" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J389">
         <v>160000</v>
       </c>
       <c r="K389" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L389">
         <v>2023</v>
@@ -9849,7 +9850,7 @@
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K390" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L390">
         <v>2023</v>
@@ -9857,7 +9858,7 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B391">
         <v>4</v>
@@ -9872,7 +9873,7 @@
         <v>4</v>
       </c>
       <c r="F391" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G391" t="s">
         <v>12</v>
@@ -9881,13 +9882,13 @@
         <v>12</v>
       </c>
       <c r="I391" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J391">
         <v>60000</v>
       </c>
       <c r="K391" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L391">
         <v>2023</v>
@@ -9895,7 +9896,7 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K392" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L392">
         <v>2023</v>
@@ -9903,7 +9904,7 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B393">
         <v>31</v>
@@ -9918,22 +9919,22 @@
         <v>31</v>
       </c>
       <c r="F393" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G393" t="s">
         <v>12</v>
       </c>
       <c r="H393" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I393" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J393">
         <v>484000</v>
       </c>
       <c r="K393" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L393">
         <v>2023</v>
@@ -9941,7 +9942,7 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K394" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L394">
         <v>2023</v>
@@ -9949,7 +9950,7 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K395" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L395">
         <v>2023</v>
@@ -9957,7 +9958,7 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K396" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L396">
         <v>2023</v>
@@ -9965,10 +9966,10 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K397" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L397">
         <v>2023</v>
@@ -9976,7 +9977,7 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K398" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L398">
         <v>2023</v>
@@ -9984,7 +9985,7 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B399">
         <v>4</v>
@@ -9999,7 +10000,7 @@
         <v>4</v>
       </c>
       <c r="F399" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G399" t="s">
         <v>12</v>
@@ -10008,13 +10009,13 @@
         <v>54</v>
       </c>
       <c r="I399" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J399">
         <v>90000</v>
       </c>
       <c r="K399" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L399">
         <v>2023</v>
@@ -10022,7 +10023,7 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K400" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L400">
         <v>2023</v>
@@ -10030,7 +10031,7 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -10045,7 +10046,7 @@
         <v>1</v>
       </c>
       <c r="F401" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G401" t="s">
         <v>12</v>
@@ -10054,13 +10055,13 @@
         <v>12</v>
       </c>
       <c r="I401" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J401">
         <v>25000</v>
       </c>
       <c r="K401" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L401">
         <v>2023</v>
@@ -10068,7 +10069,7 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K402" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L402">
         <v>2023</v>
@@ -10076,7 +10077,7 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B403">
         <v>22</v>
@@ -10091,22 +10092,22 @@
         <v>22</v>
       </c>
       <c r="F403" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G403" t="s">
         <v>12</v>
       </c>
       <c r="H403" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I403" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J403">
         <v>325000</v>
       </c>
       <c r="K403" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L403">
         <v>2023</v>
@@ -10114,7 +10115,7 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K404" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L404">
         <v>2023</v>
@@ -10122,7 +10123,7 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B405">
         <v>27</v>
@@ -10137,22 +10138,22 @@
         <v>27</v>
       </c>
       <c r="F405" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G405" t="s">
         <v>12</v>
       </c>
       <c r="H405" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I405" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J405">
         <v>440000</v>
       </c>
       <c r="K405" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L405">
         <v>2023</v>
@@ -10160,7 +10161,7 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K406" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L406">
         <v>2023</v>
@@ -10168,7 +10169,7 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K407" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L407">
         <v>2023</v>
@@ -10176,7 +10177,7 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K408" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L408">
         <v>2023</v>
@@ -10184,10 +10185,10 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K409" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L409">
         <v>2023</v>
@@ -10195,7 +10196,7 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K410" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L410">
         <v>2023</v>
@@ -10203,7 +10204,7 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B411">
         <v>3</v>
@@ -10218,7 +10219,7 @@
         <v>3</v>
       </c>
       <c r="F411" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G411" t="s">
         <v>12</v>
@@ -10227,13 +10228,13 @@
         <v>12</v>
       </c>
       <c r="I411" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J411">
         <v>45000</v>
       </c>
       <c r="K411" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L411">
         <v>2023</v>
@@ -10241,7 +10242,7 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K412" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L412">
         <v>2023</v>
@@ -10249,7 +10250,7 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B413">
         <v>2</v>
@@ -10279,7 +10280,7 @@
         <v>36000</v>
       </c>
       <c r="K413" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L413">
         <v>2023</v>
@@ -10287,7 +10288,7 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K414" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L414">
         <v>2023</v>
@@ -10295,7 +10296,7 @@
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B415">
         <v>5</v>
@@ -10310,7 +10311,7 @@
         <v>5</v>
       </c>
       <c r="F415" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G415" t="s">
         <v>12</v>
@@ -10319,13 +10320,13 @@
         <v>12</v>
       </c>
       <c r="I415" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J415">
         <v>100000</v>
       </c>
       <c r="K415" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L415">
         <v>2023</v>
@@ -10333,7 +10334,7 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K416" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L416">
         <v>2023</v>
@@ -10341,7 +10342,7 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B417">
         <v>10</v>
@@ -10356,7 +10357,7 @@
         <v>10</v>
       </c>
       <c r="F417" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G417" t="s">
         <v>12</v>
@@ -10365,13 +10366,13 @@
         <v>12</v>
       </c>
       <c r="I417" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J417">
         <v>150000</v>
       </c>
       <c r="K417" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L417">
         <v>2023</v>
@@ -10379,7 +10380,7 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K418" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L418">
         <v>2023</v>
@@ -10387,7 +10388,7 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B419">
         <v>4</v>
@@ -10402,7 +10403,7 @@
         <v>4</v>
       </c>
       <c r="F419" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G419" t="s">
         <v>12</v>
@@ -10411,13 +10412,13 @@
         <v>12</v>
       </c>
       <c r="I419" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J419">
         <v>100000</v>
       </c>
       <c r="K419" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L419">
         <v>2023</v>
@@ -10425,7 +10426,7 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K420" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L420">
         <v>2023</v>
@@ -10433,7 +10434,7 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B421">
         <v>24</v>
@@ -10448,7 +10449,7 @@
         <v>24</v>
       </c>
       <c r="F421" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G421" t="s">
         <v>12</v>
@@ -10457,13 +10458,13 @@
         <v>12</v>
       </c>
       <c r="I421" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J421">
         <v>431000</v>
       </c>
       <c r="K421" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L421">
         <v>2023</v>
@@ -10471,7 +10472,7 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K422" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L422">
         <v>2023</v>
@@ -10479,7 +10480,7 @@
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K423" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L423">
         <v>2023</v>
@@ -10487,7 +10488,7 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K424" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L424">
         <v>2023</v>
@@ -10495,10 +10496,10 @@
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K425" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L425">
         <v>2023</v>
@@ -10506,7 +10507,7 @@
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K426" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L426">
         <v>2023</v>
@@ -10514,7 +10515,7 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B427">
         <v>6</v>
@@ -10529,7 +10530,7 @@
         <v>6</v>
       </c>
       <c r="F427" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G427" t="s">
         <v>12</v>
@@ -10538,13 +10539,13 @@
         <v>12</v>
       </c>
       <c r="I427" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J427">
         <v>18000</v>
       </c>
       <c r="K427" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L427">
         <v>2023</v>
@@ -10552,7 +10553,7 @@
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K428" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L428">
         <v>2023</v>
@@ -10560,7 +10561,7 @@
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B429">
         <v>7</v>
@@ -10575,7 +10576,7 @@
         <v>7</v>
       </c>
       <c r="F429" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G429" t="s">
         <v>12</v>
@@ -10584,13 +10585,13 @@
         <v>12</v>
       </c>
       <c r="I429" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J429">
         <v>280000</v>
       </c>
       <c r="K429" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L429">
         <v>2023</v>
@@ -10598,7 +10599,7 @@
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K430" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L430">
         <v>2023</v>
@@ -10606,7 +10607,7 @@
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B431">
         <v>0</v>
@@ -10633,7 +10634,7 @@
         <v>12</v>
       </c>
       <c r="K431" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L431">
         <v>2023</v>
@@ -10641,7 +10642,7 @@
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K432" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L432">
         <v>2023</v>
@@ -10649,7 +10650,7 @@
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B433">
         <v>13</v>
@@ -10664,7 +10665,7 @@
         <v>24</v>
       </c>
       <c r="F433" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G433" t="s">
         <v>12</v>
@@ -10673,13 +10674,13 @@
         <v>12</v>
       </c>
       <c r="I433" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J433">
         <v>298000</v>
       </c>
       <c r="K433" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L433">
         <v>2023</v>
@@ -10687,7 +10688,7 @@
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K434" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L434">
         <v>2023</v>
@@ -10695,7 +10696,7 @@
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K435" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L435">
         <v>2023</v>
@@ -10703,7 +10704,7 @@
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K436" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L436">
         <v>2023</v>
@@ -10711,10 +10712,10 @@
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K437" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L437">
         <v>2023</v>
@@ -10722,7 +10723,7 @@
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K438" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L438">
         <v>2023</v>
@@ -10730,7 +10731,7 @@
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B439">
         <v>32</v>
@@ -10745,22 +10746,22 @@
         <v>32</v>
       </c>
       <c r="F439" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G439" t="s">
         <v>12</v>
       </c>
       <c r="H439" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I439" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J439">
         <v>124000</v>
       </c>
       <c r="K439" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L439">
         <v>2023</v>
@@ -10768,7 +10769,7 @@
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K440" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L440">
         <v>2023</v>
@@ -10776,7 +10777,7 @@
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B441">
         <v>5</v>
@@ -10791,22 +10792,22 @@
         <v>5</v>
       </c>
       <c r="F441" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G441" t="s">
         <v>12</v>
       </c>
       <c r="H441" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I441" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J441">
         <v>240000</v>
       </c>
       <c r="K441" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L441">
         <v>2023</v>
@@ -10814,7 +10815,7 @@
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K442" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L442">
         <v>2023</v>
@@ -10822,7 +10823,7 @@
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B443">
         <v>13</v>
@@ -10837,7 +10838,7 @@
         <v>13</v>
       </c>
       <c r="F443" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G443" t="s">
         <v>12</v>
@@ -10846,13 +10847,13 @@
         <v>12</v>
       </c>
       <c r="I443" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J443">
         <v>52000</v>
       </c>
       <c r="K443" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L443">
         <v>2023</v>
@@ -10860,7 +10861,7 @@
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K444" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L444">
         <v>2023</v>
@@ -10868,7 +10869,7 @@
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B445">
         <v>4</v>
@@ -10883,22 +10884,22 @@
         <v>4</v>
       </c>
       <c r="F445" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G445" t="s">
         <v>12</v>
       </c>
       <c r="H445" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I445" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J445">
         <v>190000</v>
       </c>
       <c r="K445" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L445">
         <v>2023</v>
@@ -10906,7 +10907,7 @@
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K446" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L446">
         <v>2023</v>
@@ -10914,7 +10915,7 @@
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B447">
         <v>3</v>
@@ -10929,22 +10930,22 @@
         <v>3</v>
       </c>
       <c r="F447" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G447" t="s">
         <v>12</v>
       </c>
       <c r="H447" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I447" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J447">
         <v>175000</v>
       </c>
       <c r="K447" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L447">
         <v>2023</v>
@@ -10952,7 +10953,7 @@
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K448" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L448">
         <v>2023</v>
@@ -10960,7 +10961,7 @@
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B449">
         <v>2</v>
@@ -10975,22 +10976,22 @@
         <v>2</v>
       </c>
       <c r="F449" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G449" t="s">
         <v>12</v>
       </c>
       <c r="H449" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I449" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J449">
         <v>100000</v>
       </c>
       <c r="K449" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L449">
         <v>2023</v>
@@ -10998,7 +10999,7 @@
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K450" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L450">
         <v>2023</v>
@@ -11006,7 +11007,7 @@
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -11021,22 +11022,22 @@
         <v>1</v>
       </c>
       <c r="F451" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G451" t="s">
         <v>12</v>
       </c>
       <c r="H451" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I451" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J451">
         <v>60000</v>
       </c>
       <c r="K451" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L451">
         <v>2023</v>
@@ -11044,7 +11045,7 @@
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K452" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L452">
         <v>2023</v>
@@ -11052,7 +11053,7 @@
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B453">
         <v>30</v>
@@ -11067,22 +11068,22 @@
         <v>30</v>
       </c>
       <c r="F453" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G453" t="s">
         <v>12</v>
       </c>
       <c r="H453" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I453" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J453">
         <v>98000</v>
       </c>
       <c r="K453" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L453">
         <v>2023</v>
@@ -11090,7 +11091,7 @@
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K454" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L454">
         <v>2023</v>
@@ -11098,7 +11099,7 @@
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B455">
         <v>10</v>
@@ -11113,22 +11114,22 @@
         <v>10</v>
       </c>
       <c r="F455" t="s">
+        <v>387</v>
+      </c>
+      <c r="G455" t="s">
+        <v>12</v>
+      </c>
+      <c r="H455" t="s">
+        <v>388</v>
+      </c>
+      <c r="I455" t="s">
         <v>389</v>
-      </c>
-      <c r="G455" t="s">
-        <v>12</v>
-      </c>
-      <c r="H455" t="s">
-        <v>390</v>
-      </c>
-      <c r="I455" t="s">
-        <v>391</v>
       </c>
       <c r="J455">
         <v>430000</v>
       </c>
       <c r="K455" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L455">
         <v>2023</v>
@@ -11136,7 +11137,7 @@
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K456" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L456">
         <v>2023</v>
@@ -11144,7 +11145,7 @@
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -11159,13 +11160,13 @@
         <v>2</v>
       </c>
       <c r="F457" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G457" t="s">
         <v>12</v>
       </c>
       <c r="H457" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I457" t="s">
         <v>78</v>
@@ -11174,7 +11175,7 @@
         <v>85000</v>
       </c>
       <c r="K457" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L457">
         <v>2023</v>
@@ -11182,7 +11183,7 @@
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K458" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L458">
         <v>2023</v>
@@ -11190,7 +11191,7 @@
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B459">
         <v>23</v>
@@ -11205,7 +11206,7 @@
         <v>23</v>
       </c>
       <c r="F459" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G459" t="s">
         <v>12</v>
@@ -11214,13 +11215,13 @@
         <v>12</v>
       </c>
       <c r="I459" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J459">
         <v>69000</v>
       </c>
       <c r="K459" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L459">
         <v>2023</v>
@@ -11228,7 +11229,7 @@
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K460" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L460">
         <v>2023</v>
@@ -11236,7 +11237,7 @@
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B461">
         <v>14</v>
@@ -11251,7 +11252,7 @@
         <v>14</v>
       </c>
       <c r="F461" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G461" t="s">
         <v>12</v>
@@ -11260,13 +11261,13 @@
         <v>12</v>
       </c>
       <c r="I461" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J461">
         <v>560000</v>
       </c>
       <c r="K461" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L461">
         <v>2023</v>
@@ -11274,7 +11275,7 @@
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K462" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L462">
         <v>2023</v>
@@ -11282,7 +11283,7 @@
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B463">
         <v>139</v>
@@ -11297,22 +11298,22 @@
         <v>139</v>
       </c>
       <c r="F463" t="s">
+        <v>396</v>
+      </c>
+      <c r="G463" t="s">
+        <v>12</v>
+      </c>
+      <c r="H463" t="s">
+        <v>397</v>
+      </c>
+      <c r="I463" t="s">
         <v>398</v>
-      </c>
-      <c r="G463" t="s">
-        <v>12</v>
-      </c>
-      <c r="H463" t="s">
-        <v>399</v>
-      </c>
-      <c r="I463" t="s">
-        <v>400</v>
       </c>
       <c r="J463">
         <v>2183000</v>
       </c>
       <c r="K463" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L463">
         <v>2023</v>
@@ -11320,7 +11321,7 @@
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K464" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L464">
         <v>2023</v>
@@ -11328,7 +11329,7 @@
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K465" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L465">
         <v>2023</v>
@@ -11336,7 +11337,7 @@
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K466" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L466">
         <v>2023</v>
@@ -11344,10 +11345,10 @@
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B467" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C467">
         <v>154</v>
@@ -11356,25 +11357,25 @@
         <v>0</v>
       </c>
       <c r="E467" t="s">
+        <v>401</v>
+      </c>
+      <c r="F467" t="s">
+        <v>402</v>
+      </c>
+      <c r="G467" t="s">
+        <v>12</v>
+      </c>
+      <c r="H467" t="s">
         <v>403</v>
       </c>
-      <c r="F467" t="s">
+      <c r="I467" t="s">
         <v>404</v>
-      </c>
-      <c r="G467" t="s">
-        <v>12</v>
-      </c>
-      <c r="H467" t="s">
-        <v>405</v>
-      </c>
-      <c r="I467" t="s">
-        <v>406</v>
       </c>
       <c r="J467">
         <v>26734250</v>
       </c>
       <c r="K467" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L467">
         <v>2023</v>
@@ -11382,7 +11383,7 @@
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K468" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L468">
         <v>2023</v>
@@ -11390,13 +11391,13 @@
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F469" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K469" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L469">
         <v>2023</v>
@@ -11404,7 +11405,7 @@
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K470" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L470">
         <v>2023</v>
@@ -11412,13 +11413,13 @@
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F471" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K471" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L471">
         <v>2023</v>
@@ -11426,7 +11427,7 @@
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K472" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L472">
         <v>2023</v>
@@ -11434,10 +11435,10 @@
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B473" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C473">
         <v>154</v>
@@ -11446,13 +11447,13 @@
         <v>0</v>
       </c>
       <c r="E473" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F473" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K473" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L473">
         <v>2023</v>
